--- a/output/5Y_P28_KFSDIV.xlsx
+++ b/output/5Y_P28_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.1788</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.5668</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.962</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2659</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4103</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.3976</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9013</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3527</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8804</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6268</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3636</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8711</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1252</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1934</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1176</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3311</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3637</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6447</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.486</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.1958</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4264</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>17.107</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.8894</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4004</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3877</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6367</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.0061</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.835</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.4216</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.2404</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.382</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>11.9583</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.2036</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9136</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.4338</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9657</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3568</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2487</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3991</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.5985</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.6955</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3398</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.8469</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.129</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.716</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.4613</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.6545</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2345</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.1636</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.8145</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2352</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.8241</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2543</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5675</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>9.967000000000001</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0064</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0129</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4583</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.3341</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.884600000000001</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967499999999999</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.1788</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.5668</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.962</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2659</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4103</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.3976</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9013</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3527</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8804</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6268</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3636</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8711</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1252</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1934</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1176</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3311</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3637</v>
@@ -5250,10 +5253,10 @@
         <v>191547.8092</v>
       </c>
       <c r="K18" s="1">
-        <v>141501.1453</v>
+        <v>141512.7535</v>
       </c>
       <c r="L18" s="1">
-        <v>13.5314</v>
+        <v>13.5325</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6447</v>
@@ -5303,10 +5306,10 @@
         <v>193552.894</v>
       </c>
       <c r="K19" s="1">
-        <v>151198.9814</v>
+        <v>151210.5896</v>
       </c>
       <c r="L19" s="1">
-        <v>13.6373</v>
+        <v>13.6383</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.486</v>
@@ -5356,10 +5359,10 @@
         <v>223799.703</v>
       </c>
       <c r="K20" s="1">
-        <v>169227.1491</v>
+        <v>169238.7573</v>
       </c>
       <c r="L20" s="1">
-        <v>13.7407</v>
+        <v>13.7416</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.1958</v>
@@ -5409,10 +5412,10 @@
         <v>242508.5998</v>
       </c>
       <c r="K21" s="1">
-        <v>168885.4579</v>
+        <v>168898.4313</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7375</v>
+        <v>13.7386</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4264</v>
@@ -5462,10 +5465,10 @@
         <v>255351.8343</v>
       </c>
       <c r="K22" s="1">
-        <v>170181.7372</v>
+        <v>170194.7106</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7536</v>
+        <v>13.7546</v>
       </c>
       <c r="M22" s="1">
         <v>0.75</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>17.107</v>
@@ -5515,10 +5518,10 @@
         <v>282375.8448</v>
       </c>
       <c r="K23" s="1">
-        <v>177361.9877</v>
+        <v>177374.9612</v>
       </c>
       <c r="L23" s="1">
-        <v>13.8457</v>
+        <v>13.8467</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.8894</v>
@@ -5568,10 +5571,10 @@
         <v>289571.7929</v>
       </c>
       <c r="K24" s="1">
-        <v>178666.7333</v>
+        <v>178679.7067</v>
       </c>
       <c r="L24" s="1">
-        <v>13.8652</v>
+        <v>13.8662</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4004</v>
@@ -5621,10 +5624,10 @@
         <v>304458.9428</v>
       </c>
       <c r="K25" s="1">
-        <v>191516.9014</v>
+        <v>191529.8749</v>
       </c>
       <c r="L25" s="1">
-        <v>14.0354</v>
+        <v>14.0363</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3877</v>
@@ -5674,10 +5677,10 @@
         <v>299572.0632</v>
       </c>
       <c r="K26" s="1">
-        <v>208242.6853</v>
+        <v>208255.6587</v>
       </c>
       <c r="L26" s="1">
-        <v>14.2018</v>
+        <v>14.2027</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6367</v>
@@ -5727,10 +5730,10 @@
         <v>297271.1488</v>
       </c>
       <c r="K27" s="1">
-        <v>233162.2542</v>
+        <v>233175.2277</v>
       </c>
       <c r="L27" s="1">
-        <v>14.3226</v>
+        <v>14.3234</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.0061</v>
@@ -5780,10 +5783,10 @@
         <v>278217.45</v>
       </c>
       <c r="K28" s="1">
-        <v>255452.6744</v>
+        <v>255465.6478</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3519</v>
+        <v>14.3526</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.835</v>
@@ -5833,10 +5836,10 @@
         <v>313277.3384</v>
       </c>
       <c r="K29" s="1">
-        <v>294573.7064</v>
+        <v>294586.6799</v>
       </c>
       <c r="L29" s="1">
-        <v>14.1615</v>
+        <v>14.1621</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.4216</v>
@@ -5886,10 +5889,10 @@
         <v>335150.7676</v>
       </c>
       <c r="K30" s="1">
-        <v>287338.1436</v>
+        <v>287380.0328</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1692</v>
+        <v>14.1712</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.2404</v>
@@ -5939,10 +5942,10 @@
         <v>321397.1547</v>
       </c>
       <c r="K31" s="1">
-        <v>285457.2038</v>
+        <v>285506.6035</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1673</v>
+        <v>14.1698</v>
       </c>
       <c r="M31" s="1">
         <v>0.4</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.382</v>
@@ -5992,10 +5995,10 @@
         <v>319065.4251</v>
       </c>
       <c r="K32" s="1">
-        <v>319346.2</v>
+        <v>319395.5997</v>
       </c>
       <c r="L32" s="1">
-        <v>14.066</v>
+        <v>14.0682</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>11.9583</v>
@@ -6045,10 +6048,10 @@
         <v>318340.6073</v>
       </c>
       <c r="K33" s="1">
-        <v>348914.3811</v>
+        <v>348963.7808</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9084</v>
+        <v>13.9104</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.2036</v>
@@ -6098,10 +6101,10 @@
         <v>334821.783</v>
       </c>
       <c r="K34" s="1">
-        <v>369603.6978</v>
+        <v>369653.0975</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7844</v>
+        <v>13.7862</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9136</v>
@@ -6151,10 +6154,10 @@
         <v>373660.5385</v>
       </c>
       <c r="K35" s="1">
-        <v>373053.6114</v>
+        <v>373103.0111</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7682</v>
+        <v>13.77</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.4338</v>
@@ -6204,10 +6207,10 @@
         <v>397355.1955</v>
       </c>
       <c r="K36" s="1">
-        <v>363816.9229</v>
+        <v>363903.2279</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7906</v>
+        <v>13.7939</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9657</v>
@@ -6257,10 +6260,10 @@
         <v>395161.1014</v>
       </c>
       <c r="K37" s="1">
-        <v>360107.4398</v>
+        <v>360208.5709</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7941</v>
+        <v>13.7979</v>
       </c>
       <c r="M37" s="1">
         <v>0.3</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3568</v>
@@ -6310,10 +6313,10 @@
         <v>422979.2842</v>
       </c>
       <c r="K38" s="1">
-        <v>382390.5517</v>
+        <v>382491.6829</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7446</v>
+        <v>13.7482</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2487</v>
@@ -6363,10 +6366,10 @@
         <v>429984.3329</v>
       </c>
       <c r="K39" s="1">
-        <v>381528.5145</v>
+        <v>381633.0916</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7454</v>
+        <v>13.7492</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3991</v>
@@ -6416,10 +6419,10 @@
         <v>444246.0494</v>
       </c>
       <c r="K40" s="1">
-        <v>394575.5548</v>
+        <v>394680.1319</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7294</v>
+        <v>13.733</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.5985</v>
@@ -6469,10 +6472,10 @@
         <v>470373.2818</v>
       </c>
       <c r="K41" s="1">
-        <v>400284.5411</v>
+        <v>400389.1182</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7249</v>
+        <v>13.7285</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.6955</v>
@@ -6522,10 +6525,10 @@
         <v>483209.5411</v>
       </c>
       <c r="K42" s="1">
-        <v>404497.5731</v>
+        <v>404602.1502</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7239</v>
+        <v>13.7274</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3398</v>
@@ -6575,10 +6578,10 @@
         <v>482532.0035</v>
       </c>
       <c r="K43" s="1">
-        <v>411673.1478</v>
+        <v>411777.7249</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7239</v>
+        <v>13.7274</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.8469</v>
@@ -6628,10 +6631,10 @@
         <v>485029.9305</v>
       </c>
       <c r="K44" s="1">
-        <v>432404.8554</v>
+        <v>432509.4325</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7063</v>
+        <v>13.7096</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.129</v>
@@ -6681,10 +6684,10 @@
         <v>504368.6316</v>
       </c>
       <c r="K45" s="1">
-        <v>458025.5575</v>
+        <v>458130.1346</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6568</v>
+        <v>13.6599</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.716</v>
@@ -6734,10 +6737,10 @@
         <v>500527.713</v>
       </c>
       <c r="K46" s="1">
-        <v>458586.7976</v>
+        <v>458691.3747</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6562</v>
+        <v>13.6593</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.4613</v>
@@ -6787,10 +6790,10 @@
         <v>510485.1752</v>
       </c>
       <c r="K47" s="1">
-        <v>482521.0852</v>
+        <v>482625.6623</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6077</v>
+        <v>13.6107</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.6545</v>
@@ -6840,10 +6843,10 @@
         <v>527540.2083000001</v>
       </c>
       <c r="K48" s="1">
-        <v>501611.1345</v>
+        <v>501715.7116</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5614</v>
+        <v>13.5642</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2345</v>
@@ -6893,10 +6896,10 @@
         <v>521928.0205</v>
       </c>
       <c r="K49" s="1">
-        <v>504491.3267</v>
+        <v>504595.9038</v>
       </c>
       <c r="L49" s="1">
-        <v>13.556</v>
+        <v>13.5588</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.1636</v>
@@ -6946,10 +6949,10 @@
         <v>539094.0636</v>
       </c>
       <c r="K50" s="1">
-        <v>530194.7363</v>
+        <v>530299.3134</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4868</v>
+        <v>13.4895</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.8145</v>
@@ -6999,10 +7002,10 @@
         <v>534979.7114</v>
       </c>
       <c r="K51" s="1">
-        <v>543025.3652</v>
+        <v>543129.9423</v>
       </c>
       <c r="L51" s="1">
-        <v>13.453</v>
+        <v>13.4555</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2352</v>
@@ -7052,10 +7055,10 @@
         <v>520364.2721</v>
       </c>
       <c r="K52" s="1">
-        <v>567184.9803000001</v>
+        <v>567289.5574</v>
       </c>
       <c r="L52" s="1">
-        <v>13.3752</v>
+        <v>13.3777</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.8241</v>
@@ -7105,10 +7108,10 @@
         <v>523013.1028</v>
       </c>
       <c r="K53" s="1">
-        <v>601842.4239000001</v>
+        <v>601947.001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.2319</v>
+        <v>13.2342</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2543</v>
@@ -7158,10 +7161,10 @@
         <v>553568.1703999999</v>
       </c>
       <c r="K54" s="1">
-        <v>630619.7197</v>
+        <v>630724.2968</v>
       </c>
       <c r="L54" s="1">
-        <v>13.1004</v>
+        <v>13.1026</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5675</v>
@@ -7211,10 +7214,10 @@
         <v>531225.8922999999</v>
       </c>
       <c r="K55" s="1">
-        <v>619906.6531999999</v>
+        <v>620054.0754</v>
       </c>
       <c r="L55" s="1">
-        <v>13.1371</v>
+        <v>13.1402</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>9.967000000000001</v>
@@ -7264,10 +7267,10 @@
         <v>523111.1333</v>
       </c>
       <c r="K56" s="1">
-        <v>662418.7598</v>
+        <v>662566.182</v>
       </c>
       <c r="L56" s="1">
-        <v>12.9373</v>
+        <v>12.9402</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0064</v>
@@ -7317,10 +7320,10 @@
         <v>535121.9543</v>
       </c>
       <c r="K57" s="1">
-        <v>686215.4351</v>
+        <v>686362.8573</v>
       </c>
       <c r="L57" s="1">
-        <v>12.8061</v>
+        <v>12.8088</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0129</v>
@@ -7370,10 +7373,10 @@
         <v>545436.7461</v>
       </c>
       <c r="K58" s="1">
-        <v>696215.4351</v>
+        <v>696362.8573</v>
       </c>
       <c r="L58" s="1">
-        <v>12.7553</v>
+        <v>12.758</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4583</v>
@@ -7423,10 +7426,10 @@
         <v>594838.9608</v>
       </c>
       <c r="K59" s="1">
-        <v>706215.4351</v>
+        <v>706362.8573</v>
       </c>
       <c r="L59" s="1">
-        <v>12.7065</v>
+        <v>12.7091</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.3341</v>
@@ -7476,10 +7479,10 @@
         <v>597948.3559</v>
       </c>
       <c r="K60" s="1">
-        <v>706113.3216</v>
+        <v>706261.152</v>
       </c>
       <c r="L60" s="1">
-        <v>12.7069</v>
+        <v>12.7095</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.884600000000001</v>
@@ -7529,10 +7532,10 @@
         <v>582217.4358</v>
       </c>
       <c r="K61" s="1">
-        <v>723071.7287</v>
+        <v>723219.5592</v>
       </c>
       <c r="L61" s="1">
-        <v>12.6395</v>
+        <v>12.6421</v>
       </c>
       <c r="M61" s="1">
         <v>0.5</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967499999999999</v>
@@ -7582,10 +7585,10 @@
         <v>622819.0005</v>
       </c>
       <c r="K62" s="1">
-        <v>750952.2824</v>
+        <v>751100.1128999999</v>
       </c>
       <c r="L62" s="1">
-        <v>12.5113</v>
+        <v>12.5137</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.1788</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.5668</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.962</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2659</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4103</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.3976</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9013</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3527</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8804</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6268</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3636</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8711</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1252</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1934</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1176</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3311</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3637</v>
@@ -8562,10 +8565,10 @@
         <v>192355.0385</v>
       </c>
       <c r="K18" s="1">
-        <v>147128.8296</v>
+        <v>147139.171</v>
       </c>
       <c r="L18" s="1">
-        <v>13.5494</v>
+        <v>13.5504</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6447</v>
@@ -8615,10 +8618,10 @@
         <v>194030.4997</v>
       </c>
       <c r="K19" s="1">
-        <v>157647.5694</v>
+        <v>157657.9109</v>
       </c>
       <c r="L19" s="1">
-        <v>13.6586</v>
+        <v>13.6595</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.486</v>
@@ -8668,10 +8671,10 @@
         <v>225133.1527</v>
       </c>
       <c r="K20" s="1">
-        <v>176891.8027</v>
+        <v>176902.1441</v>
       </c>
       <c r="L20" s="1">
-        <v>13.7622</v>
+        <v>13.763</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.1958</v>
@@ -8721,10 +8724,10 @@
         <v>244244.6872</v>
       </c>
       <c r="K21" s="1">
-        <v>177039.9523</v>
+        <v>177050.2938</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7635</v>
+        <v>13.7643</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4264</v>
@@ -8774,10 +8777,10 @@
         <v>257224.9994</v>
       </c>
       <c r="K22" s="1">
-        <v>178929.3562</v>
+        <v>178939.6977</v>
       </c>
       <c r="L22" s="1">
-        <v>13.7856</v>
+        <v>13.7864</v>
       </c>
       <c r="M22" s="1">
         <v>0.75</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>17.107</v>
@@ -8827,10 +8830,10 @@
         <v>285103.3679</v>
       </c>
       <c r="K23" s="1">
-        <v>187022.7614</v>
+        <v>187033.1028</v>
       </c>
       <c r="L23" s="1">
-        <v>13.8832</v>
+        <v>13.884</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.8894</v>
@@ -8880,10 +8883,10 @@
         <v>292144.7322</v>
       </c>
       <c r="K24" s="1">
-        <v>188985.2214</v>
+        <v>188995.5628</v>
       </c>
       <c r="L24" s="1">
-        <v>13.9107</v>
+        <v>13.9115</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4004</v>
@@ -8933,10 +8936,10 @@
         <v>307276.8857</v>
       </c>
       <c r="K25" s="1">
-        <v>203152.327</v>
+        <v>203162.6684</v>
       </c>
       <c r="L25" s="1">
-        <v>14.0856</v>
+        <v>14.0863</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3877</v>
@@ -8986,10 +8989,10 @@
         <v>301499.3711</v>
       </c>
       <c r="K26" s="1">
-        <v>221479.4184</v>
+        <v>221489.7598</v>
       </c>
       <c r="L26" s="1">
-        <v>14.2541</v>
+        <v>14.2547</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6367</v>
@@ -9039,10 +9042,10 @@
         <v>298428.8765</v>
       </c>
       <c r="K27" s="1">
-        <v>248563.4656</v>
+        <v>248573.807</v>
       </c>
       <c r="L27" s="1">
-        <v>14.3723</v>
+        <v>14.3729</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.0061</v>
@@ -9092,10 +9095,10 @@
         <v>277481.9681</v>
       </c>
       <c r="K28" s="1">
-        <v>272951.1541</v>
+        <v>272961.4955</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3981</v>
+        <v>14.3986</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.835</v>
@@ -9145,10 +9148,10 @@
         <v>314157.4573</v>
       </c>
       <c r="K29" s="1">
-        <v>314363.4803</v>
+        <v>314373.8218</v>
       </c>
       <c r="L29" s="1">
-        <v>14.202</v>
+        <v>14.2025</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.4216</v>
@@ -9198,10 +9201,10 @@
         <v>336868.1847</v>
       </c>
       <c r="K30" s="1">
-        <v>308458.4988</v>
+        <v>308492.4385</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2087</v>
+        <v>14.2102</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.2404</v>
@@ -9251,10 +9254,10 @@
         <v>321374.5012</v>
       </c>
       <c r="K31" s="1">
-        <v>307241.6386</v>
+        <v>307280.4372</v>
       </c>
       <c r="L31" s="1">
-        <v>14.2077</v>
+        <v>14.2095</v>
       </c>
       <c r="M31" s="1">
         <v>0.4</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.382</v>
@@ -9304,10 +9307,10 @@
         <v>318082.706</v>
       </c>
       <c r="K32" s="1">
-        <v>344440.1464</v>
+        <v>344478.945</v>
       </c>
       <c r="L32" s="1">
-        <v>14.0997</v>
+        <v>14.1013</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>11.9583</v>
@@ -9357,10 +9360,10 @@
         <v>316756.1984</v>
       </c>
       <c r="K33" s="1">
-        <v>370650.8684</v>
+        <v>370689.667</v>
       </c>
       <c r="L33" s="1">
-        <v>13.965</v>
+        <v>13.9664</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.2036</v>
@@ -9410,10 +9413,10 @@
         <v>333417.8694</v>
       </c>
       <c r="K34" s="1">
-        <v>380650.8684</v>
+        <v>380689.667</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9045</v>
+        <v>13.906</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9136</v>
@@ -9463,10 +9466,10 @@
         <v>373211.366</v>
       </c>
       <c r="K35" s="1">
-        <v>390650.8684</v>
+        <v>390689.667</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8559</v>
+        <v>13.8573</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.4338</v>
@@ -9516,10 +9519,10 @@
         <v>398073.4242</v>
       </c>
       <c r="K36" s="1">
-        <v>396925.6882</v>
+        <v>396964.4868</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8404</v>
+        <v>13.8418</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9657</v>
@@ -9569,10 +9572,10 @@
         <v>394783.472</v>
       </c>
       <c r="K37" s="1">
-        <v>393874.3921</v>
+        <v>393925.3862</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8434</v>
+        <v>13.8452</v>
       </c>
       <c r="M37" s="1">
         <v>0.3</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3568</v>
@@ -9622,10 +9625,10 @@
         <v>424229.3147</v>
       </c>
       <c r="K38" s="1">
-        <v>419172.6763</v>
+        <v>419223.6704</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7889</v>
+        <v>13.7906</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2487</v>
@@ -9675,10 +9678,10 @@
         <v>430947.9942</v>
       </c>
       <c r="K39" s="1">
-        <v>419275.0383</v>
+        <v>419326.0324</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7888</v>
+        <v>13.7905</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3991</v>
@@ -9728,10 +9731,10 @@
         <v>445624.4935</v>
       </c>
       <c r="K40" s="1">
-        <v>434643.9478</v>
+        <v>434694.9419</v>
       </c>
       <c r="L40" s="1">
-        <v>13.7699</v>
+        <v>13.7716</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.5985</v>
@@ -9781,10 +9784,10 @@
         <v>473349.0553</v>
       </c>
       <c r="K41" s="1">
-        <v>442022.3186</v>
+        <v>442073.3126</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7641</v>
+        <v>13.7656</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.6955</v>
@@ -9834,10 +9837,10 @@
         <v>486475.6984</v>
       </c>
       <c r="K42" s="1">
-        <v>447801.8655</v>
+        <v>447852.8596</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7623</v>
+        <v>13.7638</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3398</v>
@@ -9887,10 +9890,10 @@
         <v>484652.9785</v>
       </c>
       <c r="K43" s="1">
-        <v>456896.4076</v>
+        <v>456947.4017</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7615</v>
+        <v>13.763</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.8469</v>
@@ -9940,10 +9943,10 @@
         <v>486300.3467</v>
       </c>
       <c r="K44" s="1">
-        <v>481048.2804</v>
+        <v>481099.2745</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7411</v>
+        <v>13.7425</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.129</v>
@@ -9993,10 +9996,10 @@
         <v>506685.45</v>
       </c>
       <c r="K45" s="1">
-        <v>510717.5257</v>
+        <v>510768.5198</v>
       </c>
       <c r="L45" s="1">
-        <v>13.6874</v>
+        <v>13.6888</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.716</v>
@@ -10046,10 +10049,10 @@
         <v>501241.8435</v>
       </c>
       <c r="K46" s="1">
-        <v>512613.5133</v>
+        <v>512664.5074</v>
       </c>
       <c r="L46" s="1">
-        <v>13.6854</v>
+        <v>13.6868</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.4613</v>
@@ -10099,10 +10102,10 @@
         <v>511163.1497</v>
       </c>
       <c r="K47" s="1">
-        <v>540615.3395999999</v>
+        <v>540666.3337</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6331</v>
+        <v>13.6344</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.6545</v>
@@ -10152,10 +10155,10 @@
         <v>529068.2148</v>
       </c>
       <c r="K48" s="1">
-        <v>563302.4329</v>
+        <v>563353.427</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5828</v>
+        <v>13.5841</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2345</v>
@@ -10205,10 +10208,10 @@
         <v>521512.7814</v>
       </c>
       <c r="K49" s="1">
-        <v>567903.8895</v>
+        <v>567954.8835999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.575</v>
+        <v>13.5762</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.1636</v>
@@ -10258,10 +10261,10 @@
         <v>539648.1543000001</v>
       </c>
       <c r="K50" s="1">
-        <v>588617.0666</v>
+        <v>588668.0607</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5239</v>
+        <v>13.5251</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.8145</v>
@@ -10311,10 +10314,10 @@
         <v>533790.5093</v>
       </c>
       <c r="K51" s="1">
-        <v>609912.3896</v>
+        <v>609963.3837</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4724</v>
+        <v>13.4735</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2352</v>
@@ -10364,10 +10367,10 @@
         <v>517086.2136</v>
       </c>
       <c r="K52" s="1">
-        <v>619912.3896</v>
+        <v>619963.3837</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4424</v>
+        <v>13.4435</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.8241</v>
@@ -10417,10 +10420,10 @@
         <v>520211.6878</v>
       </c>
       <c r="K53" s="1">
-        <v>629912.3896</v>
+        <v>629963.3837</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4011</v>
+        <v>13.4022</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2543</v>
@@ -10470,10 +10473,10 @@
         <v>551194.4168</v>
       </c>
       <c r="K54" s="1">
-        <v>652363.7419</v>
+        <v>652414.7359</v>
       </c>
       <c r="L54" s="1">
-        <v>13.2933</v>
+        <v>13.2944</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5675</v>
@@ -10523,10 +10526,10 @@
         <v>526911.0037999999</v>
       </c>
       <c r="K55" s="1">
-        <v>662363.7419</v>
+        <v>662414.7359</v>
       </c>
       <c r="L55" s="1">
-        <v>13.2576</v>
+        <v>13.2586</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>9.967000000000001</v>
@@ -10576,10 +10579,10 @@
         <v>519852.8453</v>
       </c>
       <c r="K56" s="1">
-        <v>672363.7419</v>
+        <v>672414.7359</v>
       </c>
       <c r="L56" s="1">
-        <v>13.208</v>
+        <v>13.209</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0064</v>
@@ -10629,10 +10632,10 @@
         <v>531852.025</v>
       </c>
       <c r="K57" s="1">
-        <v>695853.2711</v>
+        <v>695904.2652</v>
       </c>
       <c r="L57" s="1">
-        <v>13.0658</v>
+        <v>13.0668</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0129</v>
@@ -10682,10 +10685,10 @@
         <v>542164.6884</v>
       </c>
       <c r="K58" s="1">
-        <v>705853.2711</v>
+        <v>705904.2652</v>
       </c>
       <c r="L58" s="1">
-        <v>13.0099</v>
+        <v>13.0109</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4583</v>
@@ -10735,10 +10738,10 @@
         <v>591332.9486</v>
       </c>
       <c r="K59" s="1">
-        <v>715853.2711</v>
+        <v>715904.2652</v>
       </c>
       <c r="L59" s="1">
-        <v>12.9562</v>
+        <v>12.9571</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.3341</v>
@@ -10788,10 +10791,10 @@
         <v>594091.5166</v>
       </c>
       <c r="K60" s="1">
-        <v>740502.1183</v>
+        <v>740553.1124</v>
       </c>
       <c r="L60" s="1">
-        <v>12.8551</v>
+        <v>12.856</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.884600000000001</v>
@@ -10841,10 +10844,10 @@
         <v>577777.2203</v>
       </c>
       <c r="K61" s="1">
-        <v>750502.1183</v>
+        <v>750553.1124</v>
       </c>
       <c r="L61" s="1">
-        <v>12.8139</v>
+        <v>12.8147</v>
       </c>
       <c r="M61" s="1">
         <v>0.5</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967499999999999</v>
@@ -10894,10 +10897,10 @@
         <v>619026.711</v>
       </c>
       <c r="K62" s="1">
-        <v>760502.1183</v>
+        <v>760553.1124</v>
       </c>
       <c r="L62" s="1">
-        <v>12.7645</v>
+        <v>12.7654</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.1788</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.5668</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.962</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2659</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4103</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.3976</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9013</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3527</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8804</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6268</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3636</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8711</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1252</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1934</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1176</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3311</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3637</v>
@@ -11874,10 +11877,10 @@
         <v>193177.4211</v>
       </c>
       <c r="K18" s="1">
-        <v>153046.0952</v>
+        <v>153055.0272</v>
       </c>
       <c r="L18" s="1">
-        <v>13.5687</v>
+        <v>13.5695</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6447</v>
@@ -11927,10 +11930,10 @@
         <v>194506.2294</v>
       </c>
       <c r="K19" s="1">
-        <v>164449.7314</v>
+        <v>164458.6634</v>
       </c>
       <c r="L19" s="1">
-        <v>13.6812</v>
+        <v>13.682</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.486</v>
@@ -11980,10 +11983,10 @@
         <v>226510.2028</v>
       </c>
       <c r="K20" s="1">
-        <v>185000.4792</v>
+        <v>185009.4112</v>
       </c>
       <c r="L20" s="1">
-        <v>13.7848</v>
+        <v>13.7855</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.1958</v>
@@ -12033,10 +12036,10 @@
         <v>246046.3647</v>
       </c>
       <c r="K21" s="1">
-        <v>185696.7982</v>
+        <v>185705.7302</v>
       </c>
       <c r="L21" s="1">
-        <v>13.7906</v>
+        <v>13.7912</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4264</v>
@@ -12086,10 +12089,10 @@
         <v>259172.1313</v>
       </c>
       <c r="K22" s="1">
-        <v>188249.1353</v>
+        <v>188258.0672</v>
       </c>
       <c r="L22" s="1">
-        <v>13.8187</v>
+        <v>13.8194</v>
       </c>
       <c r="M22" s="1">
         <v>0.75</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>17.107</v>
@@ -12139,10 +12142,10 @@
         <v>287959.3423</v>
       </c>
       <c r="K23" s="1">
-        <v>197351.4107</v>
+        <v>197360.3426</v>
       </c>
       <c r="L23" s="1">
-        <v>13.9217</v>
+        <v>13.9224</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.8894</v>
@@ -12192,10 +12195,10 @@
         <v>294835.2535</v>
       </c>
       <c r="K24" s="1">
-        <v>200057.9615</v>
+        <v>200066.8934</v>
       </c>
       <c r="L24" s="1">
-        <v>13.9572</v>
+        <v>13.9578</v>
       </c>
       <c r="M24" s="1">
         <v>1</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4004</v>
@@ -12245,10 +12248,10 @@
         <v>310227.8168</v>
       </c>
       <c r="K25" s="1">
-        <v>215680.7986</v>
+        <v>215689.7305</v>
       </c>
       <c r="L25" s="1">
-        <v>14.1367</v>
+        <v>14.1373</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3877</v>
@@ -12298,10 +12301,10 @@
         <v>303491.3421</v>
       </c>
       <c r="K26" s="1">
-        <v>235778.1103</v>
+        <v>235787.0423</v>
       </c>
       <c r="L26" s="1">
-        <v>14.3071</v>
+        <v>14.3076</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6367</v>
@@ -12351,10 +12354,10 @@
         <v>299589.3857</v>
       </c>
       <c r="K27" s="1">
-        <v>265249.3263</v>
+        <v>265258.2582</v>
       </c>
       <c r="L27" s="1">
-        <v>14.4226</v>
+        <v>14.4231</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.0061</v>
@@ -12404,10 +12407,10 @@
         <v>276590.3673</v>
       </c>
       <c r="K28" s="1">
-        <v>291964.6037</v>
+        <v>291973.5357</v>
       </c>
       <c r="L28" s="1">
-        <v>14.4445</v>
+        <v>14.445</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.835</v>
@@ -12457,10 +12460,10 @@
         <v>313847.0224</v>
       </c>
       <c r="K29" s="1">
-        <v>316190.9299</v>
+        <v>316199.8619</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3256</v>
+        <v>14.326</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.4216</v>
@@ -12510,10 +12513,10 @@
         <v>337405.036</v>
       </c>
       <c r="K30" s="1">
-        <v>332796.9935</v>
+        <v>332805.9255</v>
       </c>
       <c r="L30" s="1">
-        <v>14.3018</v>
+        <v>14.3021</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.2404</v>
@@ -12563,10 +12566,10 @@
         <v>320006.1547</v>
       </c>
       <c r="K31" s="1">
-        <v>332383.8766</v>
+        <v>332394.4581</v>
       </c>
       <c r="L31" s="1">
-        <v>14.3016</v>
+        <v>14.302</v>
       </c>
       <c r="M31" s="1">
         <v>0.4</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.382</v>
@@ -12616,10 +12619,10 @@
         <v>316892.009</v>
       </c>
       <c r="K32" s="1">
-        <v>355285.0361</v>
+        <v>355295.6176</v>
       </c>
       <c r="L32" s="1">
-        <v>14.23</v>
+        <v>14.2305</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>11.9583</v>
@@ -12669,10 +12672,10 @@
         <v>315636.5266</v>
       </c>
       <c r="K33" s="1">
-        <v>373651.8164</v>
+        <v>373662.3979</v>
       </c>
       <c r="L33" s="1">
-        <v>14.128</v>
+        <v>14.1284</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.2036</v>
@@ -12722,10 +12725,10 @@
         <v>332275.2307</v>
       </c>
       <c r="K34" s="1">
-        <v>383651.8164</v>
+        <v>383662.3979</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0624</v>
+        <v>14.0627</v>
       </c>
       <c r="M34" s="1">
         <v>0.4</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9136</v>
@@ -12775,10 +12778,10 @@
         <v>371968.4725</v>
       </c>
       <c r="K35" s="1">
-        <v>393651.8164</v>
+        <v>393662.3979</v>
       </c>
       <c r="L35" s="1">
-        <v>14.009</v>
+        <v>14.0093</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.4338</v>
@@ -12828,10 +12831,10 @@
         <v>397271.1651</v>
       </c>
       <c r="K36" s="1">
-        <v>413473.4043</v>
+        <v>413483.9858</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9537</v>
+        <v>13.954</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9657</v>
@@ -12881,10 +12884,10 @@
         <v>393043.1525</v>
       </c>
       <c r="K37" s="1">
-        <v>423473.4043</v>
+        <v>423483.9858</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9416</v>
+        <v>13.942</v>
       </c>
       <c r="M37" s="1">
         <v>0.3</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3568</v>
@@ -12934,10 +12937,10 @@
         <v>423360.072</v>
       </c>
       <c r="K38" s="1">
-        <v>433473.4043</v>
+        <v>433483.9858</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9182</v>
+        <v>13.9185</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2487</v>
@@ -12987,10 +12990,10 @@
         <v>429780.086</v>
       </c>
       <c r="K39" s="1">
-        <v>451674.586</v>
+        <v>451685.1675</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8958</v>
+        <v>13.8961</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3991</v>
@@ -13040,10 +13043,10 @@
         <v>444732.1449</v>
       </c>
       <c r="K40" s="1">
-        <v>461674.586</v>
+        <v>461685.1675</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8817</v>
+        <v>13.882</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.5985</v>
@@ -13093,10 +13096,10 @@
         <v>473431.5059</v>
       </c>
       <c r="K41" s="1">
-        <v>471674.586</v>
+        <v>471685.1675</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8717</v>
+        <v>13.8721</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.6955</v>
@@ -13146,10 +13149,10 @@
         <v>486791.3263</v>
       </c>
       <c r="K42" s="1">
-        <v>493647.3635</v>
+        <v>493657.945</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8606</v>
+        <v>13.8609</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3398</v>
@@ -13199,10 +13202,10 @@
         <v>483849.3259</v>
       </c>
       <c r="K43" s="1">
-        <v>503647.3635</v>
+        <v>503657.945</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8578</v>
+        <v>13.8581</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.8469</v>
@@ -13252,10 +13255,10 @@
         <v>485376.6651</v>
       </c>
       <c r="K44" s="1">
-        <v>513647.3635</v>
+        <v>513657.945</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8479</v>
+        <v>13.8482</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.129</v>
@@ -13305,10 +13308,10 @@
         <v>506172.2184</v>
       </c>
       <c r="K45" s="1">
-        <v>533460.2033000001</v>
+        <v>533470.7848</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8091</v>
+        <v>13.8093</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.716</v>
@@ -13358,10 +13361,10 @@
         <v>499899.0845</v>
       </c>
       <c r="K46" s="1">
-        <v>543460.2033000001</v>
+        <v>543470.7848</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7965</v>
+        <v>13.7967</v>
       </c>
       <c r="M46" s="1">
         <v>0.3</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.4613</v>
@@ -13411,10 +13414,10 @@
         <v>510282.0131</v>
       </c>
       <c r="K47" s="1">
-        <v>553460.2033000001</v>
+        <v>553470.7848</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7758</v>
+        <v>13.7761</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.6545</v>
@@ -13464,10 +13467,10 @@
         <v>528264.1357</v>
       </c>
       <c r="K48" s="1">
-        <v>574095.8512</v>
+        <v>574106.4327</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7249</v>
+        <v>13.7252</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2345</v>
@@ -13517,10 +13520,10 @@
         <v>520358.921</v>
       </c>
       <c r="K49" s="1">
-        <v>584095.8512</v>
+        <v>584106.4327</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7056</v>
+        <v>13.7058</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.1636</v>
@@ -13570,10 +13573,10 @@
         <v>538754.9338999999</v>
       </c>
       <c r="K50" s="1">
-        <v>594095.8512</v>
+        <v>594106.4327</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6784</v>
+        <v>13.6786</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.8145</v>
@@ -13623,10 +13626,10 @@
         <v>532922.1041</v>
       </c>
       <c r="K51" s="1">
-        <v>615602.5595</v>
+        <v>615613.1409999999</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6202</v>
+        <v>13.6204</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2352</v>
@@ -13676,10 +13679,10 @@
         <v>516260.3931</v>
       </c>
       <c r="K52" s="1">
-        <v>625602.5595</v>
+        <v>625613.1409999999</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5875</v>
+        <v>13.5877</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.8241</v>
@@ -13729,10 +13732,10 @@
         <v>519396.2004</v>
       </c>
       <c r="K53" s="1">
-        <v>635602.5595</v>
+        <v>635613.1409999999</v>
       </c>
       <c r="L53" s="1">
-        <v>13.5434</v>
+        <v>13.5436</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2543</v>
@@ -13782,10 +13785,10 @@
         <v>550346.5961</v>
       </c>
       <c r="K54" s="1">
-        <v>658034.0261</v>
+        <v>658044.6076</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4295</v>
+        <v>13.4298</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5675</v>
@@ -13835,10 +13838,10 @@
         <v>526114.9198</v>
       </c>
       <c r="K55" s="1">
-        <v>668034.0261</v>
+        <v>668044.6076</v>
       </c>
       <c r="L55" s="1">
-        <v>13.3913</v>
+        <v>13.3915</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>9.967000000000001</v>
@@ -13888,10 +13891,10 @@
         <v>519081.6182</v>
       </c>
       <c r="K56" s="1">
-        <v>678034.0261</v>
+        <v>678044.6076</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3392</v>
+        <v>13.3394</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0064</v>
@@ -13941,10 +13944,10 @@
         <v>531077.8327</v>
       </c>
       <c r="K57" s="1">
-        <v>701503.1747</v>
+        <v>701513.7561999999</v>
       </c>
       <c r="L57" s="1">
-        <v>13.1911</v>
+        <v>13.1913</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0129</v>
@@ -13994,10 +13997,10 @@
         <v>541389.9922</v>
       </c>
       <c r="K58" s="1">
-        <v>711503.1747</v>
+        <v>711513.7561999999</v>
       </c>
       <c r="L58" s="1">
-        <v>13.1328</v>
+        <v>13.133</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4583</v>
@@ -14047,10 +14050,10 @@
         <v>590502.8609</v>
       </c>
       <c r="K59" s="1">
-        <v>721503.1747</v>
+        <v>721513.7561999999</v>
       </c>
       <c r="L59" s="1">
-        <v>13.0768</v>
+        <v>13.077</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.3341</v>
@@ -14100,10 +14103,10 @@
         <v>593271.3734</v>
       </c>
       <c r="K60" s="1">
-        <v>746131.0903</v>
+        <v>746141.6718</v>
       </c>
       <c r="L60" s="1">
-        <v>12.9707</v>
+        <v>12.9709</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.884600000000001</v>
@@ -14153,10 +14156,10 @@
         <v>576992.7507</v>
       </c>
       <c r="K61" s="1">
-        <v>756131.0903</v>
+        <v>756141.6718</v>
       </c>
       <c r="L61" s="1">
-        <v>12.9275</v>
+        <v>12.9277</v>
       </c>
       <c r="M61" s="1">
         <v>0.5</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967499999999999</v>
@@ -14206,10 +14209,10 @@
         <v>618199.872</v>
       </c>
       <c r="K62" s="1">
-        <v>766131.0903</v>
+        <v>766141.6718</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8762</v>
+        <v>12.8764</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.1788</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.5668</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.962</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.2659</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.4103</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.3976</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9013</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.3527</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8804</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>14.6268</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>15.3636</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8711</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1252</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.1934</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14.1176</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15.3311</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3637</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>14.6447</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>15.486</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>16.1958</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.4264</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>17.107</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>16.8894</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>16.4004</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.3877</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.6367</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.0061</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.835</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.4216</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>13.2404</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.382</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>11.9583</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>12.2036</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9136</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.4338</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>12.9657</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3568</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>13.2487</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.3991</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.5985</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.6955</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.3398</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.8469</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.129</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.716</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.4613</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>12.6545</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.2345</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.1636</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>11.8145</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>11.2352</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>10.8241</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>11.2543</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>10.5675</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>9.967000000000001</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>10.0064</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>10.0129</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.4583</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>10.3341</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>9.884600000000001</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967499999999999</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,13 +17600,13 @@
         <v>12.6701</v>
       </c>
       <c r="D3" s="1">
-        <v>12.5113</v>
+        <v>12.5137</v>
       </c>
       <c r="E3" s="1">
-        <v>12.7645</v>
+        <v>12.7654</v>
       </c>
       <c r="F3" s="1">
-        <v>12.8762</v>
+        <v>12.8764</v>
       </c>
       <c r="G3" s="1">
         <v>12.9373</v>
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>194915.9715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8193</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8292</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.8139</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.8069</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.8031</v>
       </c>
     </row>
   </sheetData>
